--- a/results/161014-Y31-1611-2016_Beach_Stylers_-_Open_Pairs.xlsx
+++ b/results/161014-Y31-1611-2016_Beach_Stylers_-_Open_Pairs.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17329"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20373"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Kolja\SkyDrive\Dokumente\Frisbee\Rankings\Turniere-berechnet\rankings 1611\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\FpaExcelResultsParser\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C27C46B-678A-4576-89DA-277B84A8E213}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12360"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17775" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Y31" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_FilterDatabase" localSheetId="0" hidden="1">'Y31'!#REF!</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Y31'!#REF!</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="643" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="643" uniqueCount="65">
   <si>
     <t>Event:</t>
   </si>
@@ -219,12 +220,15 @@
   </si>
   <si>
     <t>359T</t>
+  </si>
+  <si>
+    <t>Missing, Janine</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1543,169 +1547,41 @@
     <xf numFmtId="2" fontId="2" fillId="7" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="60" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="61" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="62" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="55" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-      <protection hidden="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
@@ -1715,6 +1591,39 @@
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="14" fontId="2" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection locked="0"/>
@@ -1723,6 +1632,10 @@
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection locked="0"/>
@@ -1731,82 +1644,173 @@
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="60" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="61" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="62" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="55" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+      <protection hidden="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="4">
     <dxf>
@@ -2146,7 +2150,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Tabelle10">
     <tabColor theme="9" tint="-0.249977111117893"/>
   </sheetPr>
@@ -2154,10 +2158,10 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A23" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="F66" sqref="F66"/>
+      <selection pane="topRight" activeCell="W33" sqref="W33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="2.42578125" style="1" customWidth="1"/>
     <col min="2" max="2" width="3.42578125" style="1" customWidth="1"/>
@@ -2191,16 +2195,16 @@
       <c r="F2" s="7"/>
       <c r="G2" s="7"/>
       <c r="H2" s="7"/>
-      <c r="I2" s="167" t="s">
+      <c r="I2" s="118" t="s">
         <v>1</v>
       </c>
-      <c r="J2" s="168"/>
-      <c r="K2" s="168"/>
-      <c r="L2" s="168"/>
-      <c r="M2" s="168"/>
-      <c r="N2" s="168"/>
-      <c r="O2" s="168"/>
-      <c r="P2" s="169"/>
+      <c r="J2" s="119"/>
+      <c r="K2" s="119"/>
+      <c r="L2" s="119"/>
+      <c r="M2" s="119"/>
+      <c r="N2" s="119"/>
+      <c r="O2" s="119"/>
+      <c r="P2" s="120"/>
     </row>
     <row r="3" spans="1:22" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="8" t="s">
@@ -2212,16 +2216,16 @@
       <c r="F3" s="9"/>
       <c r="G3" s="9"/>
       <c r="H3" s="9"/>
-      <c r="I3" s="160" t="s">
+      <c r="I3" s="121" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="154"/>
-      <c r="K3" s="154"/>
-      <c r="L3" s="154"/>
-      <c r="M3" s="154"/>
-      <c r="N3" s="154"/>
-      <c r="O3" s="154"/>
-      <c r="P3" s="155"/>
+      <c r="J3" s="122"/>
+      <c r="K3" s="122"/>
+      <c r="L3" s="122"/>
+      <c r="M3" s="122"/>
+      <c r="N3" s="122"/>
+      <c r="O3" s="122"/>
+      <c r="P3" s="123"/>
     </row>
     <row r="4" spans="1:22" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="10" t="s">
@@ -2233,16 +2237,16 @@
       <c r="F4" s="11"/>
       <c r="G4" s="11"/>
       <c r="H4" s="11"/>
-      <c r="I4" s="170">
+      <c r="I4" s="124">
         <v>42657</v>
       </c>
-      <c r="J4" s="171"/>
-      <c r="K4" s="171"/>
-      <c r="L4" s="171"/>
-      <c r="M4" s="171"/>
-      <c r="N4" s="171"/>
-      <c r="O4" s="171"/>
-      <c r="P4" s="172"/>
+      <c r="J4" s="125"/>
+      <c r="K4" s="125"/>
+      <c r="L4" s="125"/>
+      <c r="M4" s="125"/>
+      <c r="N4" s="125"/>
+      <c r="O4" s="125"/>
+      <c r="P4" s="126"/>
     </row>
     <row r="5" spans="1:22" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="8" t="s">
@@ -2254,16 +2258,16 @@
       <c r="F5" s="9"/>
       <c r="G5" s="9"/>
       <c r="H5" s="9"/>
-      <c r="I5" s="160" t="s">
+      <c r="I5" s="121" t="s">
         <v>7</v>
       </c>
-      <c r="J5" s="154"/>
-      <c r="K5" s="154"/>
-      <c r="L5" s="154"/>
-      <c r="M5" s="154"/>
-      <c r="N5" s="154"/>
-      <c r="O5" s="154"/>
-      <c r="P5" s="155"/>
+      <c r="J5" s="122"/>
+      <c r="K5" s="122"/>
+      <c r="L5" s="122"/>
+      <c r="M5" s="122"/>
+      <c r="N5" s="122"/>
+      <c r="O5" s="122"/>
+      <c r="P5" s="123"/>
     </row>
     <row r="6" spans="1:22" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="10" t="s">
@@ -2275,16 +2279,16 @@
       <c r="F6" s="11"/>
       <c r="G6" s="11"/>
       <c r="H6" s="11"/>
-      <c r="I6" s="173">
+      <c r="I6" s="127">
         <v>24</v>
       </c>
-      <c r="J6" s="174"/>
-      <c r="K6" s="174"/>
-      <c r="L6" s="174"/>
-      <c r="M6" s="174"/>
-      <c r="N6" s="174"/>
-      <c r="O6" s="174"/>
-      <c r="P6" s="175"/>
+      <c r="J6" s="128"/>
+      <c r="K6" s="128"/>
+      <c r="L6" s="128"/>
+      <c r="M6" s="128"/>
+      <c r="N6" s="128"/>
+      <c r="O6" s="128"/>
+      <c r="P6" s="129"/>
     </row>
     <row r="7" spans="1:22" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="8" t="s">
@@ -2296,16 +2300,16 @@
       <c r="F7" s="9"/>
       <c r="G7" s="9"/>
       <c r="H7" s="9"/>
-      <c r="I7" s="176">
+      <c r="I7" s="130">
         <v>1</v>
       </c>
-      <c r="J7" s="177"/>
-      <c r="K7" s="177"/>
-      <c r="L7" s="177"/>
-      <c r="M7" s="177"/>
-      <c r="N7" s="177"/>
-      <c r="O7" s="177"/>
-      <c r="P7" s="178"/>
+      <c r="J7" s="131"/>
+      <c r="K7" s="131"/>
+      <c r="L7" s="131"/>
+      <c r="M7" s="131"/>
+      <c r="N7" s="131"/>
+      <c r="O7" s="131"/>
+      <c r="P7" s="132"/>
     </row>
     <row r="8" spans="1:22" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="10" t="s">
@@ -2317,18 +2321,18 @@
       <c r="F8" s="11"/>
       <c r="G8" s="11"/>
       <c r="H8" s="11"/>
-      <c r="I8" s="156" t="s">
+      <c r="I8" s="133" t="s">
         <v>11</v>
       </c>
-      <c r="J8" s="157"/>
-      <c r="K8" s="157"/>
-      <c r="L8" s="157"/>
-      <c r="M8" s="157" t="s">
+      <c r="J8" s="134"/>
+      <c r="K8" s="134"/>
+      <c r="L8" s="134"/>
+      <c r="M8" s="134" t="s">
         <v>5</v>
       </c>
-      <c r="N8" s="157"/>
-      <c r="O8" s="157"/>
-      <c r="P8" s="161"/>
+      <c r="N8" s="134"/>
+      <c r="O8" s="134"/>
+      <c r="P8" s="135"/>
     </row>
     <row r="9" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="8" t="s">
@@ -2340,14 +2344,14 @@
       <c r="F9" s="9"/>
       <c r="G9" s="9"/>
       <c r="H9" s="9"/>
-      <c r="I9" s="160"/>
-      <c r="J9" s="154"/>
-      <c r="K9" s="154"/>
-      <c r="L9" s="154"/>
-      <c r="M9" s="154"/>
-      <c r="N9" s="154"/>
-      <c r="O9" s="154"/>
-      <c r="P9" s="155"/>
+      <c r="I9" s="121"/>
+      <c r="J9" s="122"/>
+      <c r="K9" s="122"/>
+      <c r="L9" s="122"/>
+      <c r="M9" s="122"/>
+      <c r="N9" s="122"/>
+      <c r="O9" s="122"/>
+      <c r="P9" s="123"/>
     </row>
     <row r="10" spans="1:22" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="10" t="s">
@@ -2359,14 +2363,14 @@
       <c r="F10" s="11"/>
       <c r="G10" s="11"/>
       <c r="H10" s="11"/>
-      <c r="I10" s="156"/>
-      <c r="J10" s="157"/>
-      <c r="K10" s="157"/>
-      <c r="L10" s="157"/>
-      <c r="M10" s="158"/>
-      <c r="N10" s="158"/>
-      <c r="O10" s="158"/>
-      <c r="P10" s="159"/>
+      <c r="I10" s="133"/>
+      <c r="J10" s="134"/>
+      <c r="K10" s="134"/>
+      <c r="L10" s="134"/>
+      <c r="M10" s="136"/>
+      <c r="N10" s="136"/>
+      <c r="O10" s="136"/>
+      <c r="P10" s="137"/>
     </row>
     <row r="11" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="8" t="s">
@@ -2378,16 +2382,16 @@
       <c r="F11" s="9"/>
       <c r="G11" s="9"/>
       <c r="H11" s="9"/>
-      <c r="I11" s="160">
+      <c r="I11" s="121">
         <v>1611</v>
       </c>
-      <c r="J11" s="154"/>
-      <c r="K11" s="154"/>
-      <c r="L11" s="154"/>
-      <c r="M11" s="154"/>
-      <c r="N11" s="154"/>
-      <c r="O11" s="154"/>
-      <c r="P11" s="155"/>
+      <c r="J11" s="122"/>
+      <c r="K11" s="122"/>
+      <c r="L11" s="122"/>
+      <c r="M11" s="122"/>
+      <c r="N11" s="122"/>
+      <c r="O11" s="122"/>
+      <c r="P11" s="123"/>
     </row>
     <row r="12" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="12" t="s">
@@ -2399,33 +2403,33 @@
       <c r="F12" s="13"/>
       <c r="G12" s="13"/>
       <c r="H12" s="13"/>
-      <c r="I12" s="156">
+      <c r="I12" s="133">
         <v>1811</v>
       </c>
-      <c r="J12" s="157"/>
-      <c r="K12" s="157"/>
-      <c r="L12" s="157"/>
-      <c r="M12" s="157"/>
-      <c r="N12" s="157"/>
-      <c r="O12" s="157"/>
-      <c r="P12" s="161"/>
+      <c r="J12" s="134"/>
+      <c r="K12" s="134"/>
+      <c r="L12" s="134"/>
+      <c r="M12" s="134"/>
+      <c r="N12" s="134"/>
+      <c r="O12" s="134"/>
+      <c r="P12" s="135"/>
     </row>
     <row r="13" spans="1:22" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="162"/>
-      <c r="C13" s="163"/>
-      <c r="D13" s="163"/>
-      <c r="E13" s="163"/>
-      <c r="F13" s="163"/>
-      <c r="G13" s="163"/>
-      <c r="H13" s="163"/>
-      <c r="I13" s="164"/>
-      <c r="J13" s="165"/>
-      <c r="K13" s="165"/>
-      <c r="L13" s="165"/>
-      <c r="M13" s="165"/>
-      <c r="N13" s="165"/>
-      <c r="O13" s="165"/>
-      <c r="P13" s="166"/>
+      <c r="B13" s="113"/>
+      <c r="C13" s="114"/>
+      <c r="D13" s="114"/>
+      <c r="E13" s="114"/>
+      <c r="F13" s="114"/>
+      <c r="G13" s="114"/>
+      <c r="H13" s="114"/>
+      <c r="I13" s="115"/>
+      <c r="J13" s="116"/>
+      <c r="K13" s="116"/>
+      <c r="L13" s="116"/>
+      <c r="M13" s="116"/>
+      <c r="N13" s="116"/>
+      <c r="O13" s="116"/>
+      <c r="P13" s="117"/>
     </row>
     <row r="14" spans="1:22" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="Q14" s="4"/>
@@ -2452,9 +2456,9 @@
       <c r="N15" s="20"/>
       <c r="O15" s="21"/>
       <c r="P15" s="21"/>
-      <c r="R15" s="123"/>
-      <c r="S15" s="124"/>
-      <c r="T15" s="125"/>
+      <c r="R15" s="138"/>
+      <c r="S15" s="139"/>
+      <c r="T15" s="140"/>
       <c r="U15" s="22">
         <v>1</v>
       </c>
@@ -2501,11 +2505,11 @@
       <c r="P16" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="R16" s="117" t="s">
+      <c r="R16" s="141" t="s">
         <v>25</v>
       </c>
-      <c r="S16" s="118"/>
-      <c r="T16" s="119"/>
+      <c r="S16" s="142"/>
+      <c r="T16" s="143"/>
       <c r="U16" s="36"/>
     </row>
     <row r="17" spans="1:21" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -2537,7 +2541,7 @@
       <c r="U17" s="36"/>
     </row>
     <row r="18" spans="1:21" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="120">
+      <c r="B18" s="144">
         <v>1</v>
       </c>
       <c r="C18" s="50">
@@ -2577,7 +2581,7 @@
       <c r="O18" s="60">
         <v>163</v>
       </c>
-      <c r="P18" s="116" t="s">
+      <c r="P18" s="147" t="s">
         <v>30</v>
       </c>
       <c r="R18" s="61" t="s">
@@ -2592,7 +2596,7 @@
       <c r="U18" s="36"/>
     </row>
     <row r="19" spans="1:21" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="121"/>
+      <c r="B19" s="145"/>
       <c r="C19" s="64">
         <v>1</v>
       </c>
@@ -2630,7 +2634,7 @@
       <c r="O19" s="73">
         <v>163</v>
       </c>
-      <c r="P19" s="116"/>
+      <c r="P19" s="147"/>
       <c r="R19" s="74" t="s">
         <v>31</v>
       </c>
@@ -2643,7 +2647,7 @@
       <c r="U19" s="36"/>
     </row>
     <row r="20" spans="1:21" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="122"/>
+      <c r="B20" s="146"/>
       <c r="C20" s="78">
         <v>1</v>
       </c>
@@ -2679,7 +2683,7 @@
       <c r="O20" s="87" t="s">
         <v>57</v>
       </c>
-      <c r="P20" s="116"/>
+      <c r="P20" s="147"/>
       <c r="R20" s="61" t="s">
         <v>57</v>
       </c>
@@ -2692,7 +2696,7 @@
       <c r="U20" s="36"/>
     </row>
     <row r="21" spans="1:21" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="120">
+      <c r="B21" s="144">
         <v>2</v>
       </c>
       <c r="C21" s="50">
@@ -2732,7 +2736,7 @@
       <c r="O21" s="60">
         <v>124</v>
       </c>
-      <c r="P21" s="116" t="s">
+      <c r="P21" s="147" t="s">
         <v>30</v>
       </c>
       <c r="R21" s="74" t="s">
@@ -2747,7 +2751,7 @@
       <c r="U21" s="36"/>
     </row>
     <row r="22" spans="1:21" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="121"/>
+      <c r="B22" s="145"/>
       <c r="C22" s="64">
         <v>2</v>
       </c>
@@ -2785,7 +2789,7 @@
       <c r="O22" s="73">
         <v>124</v>
       </c>
-      <c r="P22" s="116"/>
+      <c r="P22" s="147"/>
       <c r="R22" s="61" t="s">
         <v>33</v>
       </c>
@@ -2798,7 +2802,7 @@
       <c r="U22" s="36"/>
     </row>
     <row r="23" spans="1:21" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="122"/>
+      <c r="B23" s="146"/>
       <c r="C23" s="78">
         <v>2</v>
       </c>
@@ -2834,7 +2838,7 @@
       <c r="O23" s="87" t="s">
         <v>57</v>
       </c>
-      <c r="P23" s="116"/>
+      <c r="P23" s="147"/>
       <c r="R23" s="74" t="s">
         <v>57</v>
       </c>
@@ -2847,7 +2851,7 @@
       <c r="U23" s="36"/>
     </row>
     <row r="24" spans="1:21" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="113">
+      <c r="B24" s="148">
         <v>3</v>
       </c>
       <c r="C24" s="50">
@@ -2887,7 +2891,7 @@
       <c r="O24" s="60">
         <v>93</v>
       </c>
-      <c r="P24" s="116" t="s">
+      <c r="P24" s="147" t="s">
         <v>30</v>
       </c>
       <c r="R24" s="61" t="s">
@@ -2902,7 +2906,7 @@
       <c r="U24" s="36"/>
     </row>
     <row r="25" spans="1:21" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="114"/>
+      <c r="B25" s="149"/>
       <c r="C25" s="64">
         <v>3</v>
       </c>
@@ -2940,7 +2944,7 @@
       <c r="O25" s="73">
         <v>93</v>
       </c>
-      <c r="P25" s="116"/>
+      <c r="P25" s="147"/>
       <c r="R25" s="74" t="s">
         <v>35</v>
       </c>
@@ -2953,7 +2957,7 @@
       <c r="U25" s="36"/>
     </row>
     <row r="26" spans="1:21" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="115"/>
+      <c r="B26" s="150"/>
       <c r="C26" s="78">
         <v>3</v>
       </c>
@@ -2989,7 +2993,7 @@
       <c r="O26" s="87" t="s">
         <v>57</v>
       </c>
-      <c r="P26" s="116"/>
+      <c r="P26" s="147"/>
       <c r="R26" s="61" t="s">
         <v>57</v>
       </c>
@@ -3002,7 +3006,7 @@
       <c r="U26" s="36"/>
     </row>
     <row r="27" spans="1:21" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="113">
+      <c r="B27" s="148">
         <v>4</v>
       </c>
       <c r="C27" s="50">
@@ -3042,7 +3046,7 @@
       <c r="O27" s="60">
         <v>76.5</v>
       </c>
-      <c r="P27" s="116" t="s">
+      <c r="P27" s="147" t="s">
         <v>30</v>
       </c>
       <c r="R27" s="74" t="s">
@@ -3057,7 +3061,7 @@
       <c r="U27" s="36"/>
     </row>
     <row r="28" spans="1:21" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="114"/>
+      <c r="B28" s="149"/>
       <c r="C28" s="64">
         <v>4</v>
       </c>
@@ -3095,7 +3099,7 @@
       <c r="O28" s="73">
         <v>76.5</v>
       </c>
-      <c r="P28" s="116"/>
+      <c r="P28" s="147"/>
       <c r="R28" s="61" t="s">
         <v>37</v>
       </c>
@@ -3108,7 +3112,7 @@
       <c r="U28" s="36"/>
     </row>
     <row r="29" spans="1:21" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="115"/>
+      <c r="B29" s="150"/>
       <c r="C29" s="78">
         <v>4</v>
       </c>
@@ -3144,7 +3148,7 @@
       <c r="O29" s="87" t="s">
         <v>57</v>
       </c>
-      <c r="P29" s="116"/>
+      <c r="P29" s="147"/>
       <c r="R29" s="74" t="s">
         <v>57</v>
       </c>
@@ -3157,7 +3161,7 @@
       <c r="U29" s="36"/>
     </row>
     <row r="30" spans="1:21" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="113">
+      <c r="B30" s="148">
         <v>5</v>
       </c>
       <c r="C30" s="50">
@@ -3197,7 +3201,7 @@
       <c r="O30" s="60">
         <v>66.5</v>
       </c>
-      <c r="P30" s="116" t="s">
+      <c r="P30" s="147" t="s">
         <v>30</v>
       </c>
       <c r="R30" s="61" t="s">
@@ -3212,7 +3216,7 @@
       <c r="U30" s="36"/>
     </row>
     <row r="31" spans="1:21" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="114"/>
+      <c r="B31" s="149"/>
       <c r="C31" s="64">
         <v>5</v>
       </c>
@@ -3250,7 +3254,7 @@
       <c r="O31" s="73">
         <v>66.5</v>
       </c>
-      <c r="P31" s="116"/>
+      <c r="P31" s="147"/>
       <c r="R31" s="74" t="s">
         <v>39</v>
       </c>
@@ -3263,7 +3267,7 @@
       <c r="U31" s="36"/>
     </row>
     <row r="32" spans="1:21" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="115"/>
+      <c r="B32" s="150"/>
       <c r="C32" s="78">
         <v>5</v>
       </c>
@@ -3299,7 +3303,7 @@
       <c r="O32" s="87" t="s">
         <v>57</v>
       </c>
-      <c r="P32" s="116"/>
+      <c r="P32" s="147"/>
       <c r="R32" s="61" t="s">
         <v>57</v>
       </c>
@@ -3312,7 +3316,7 @@
       <c r="U32" s="36"/>
     </row>
     <row r="33" spans="1:30" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="113">
+      <c r="B33" s="148">
         <v>6</v>
       </c>
       <c r="C33" s="50">
@@ -3352,7 +3356,7 @@
       <c r="O33" s="60">
         <v>54</v>
       </c>
-      <c r="P33" s="116" t="s">
+      <c r="P33" s="147" t="s">
         <v>30</v>
       </c>
       <c r="R33" s="74" t="s">
@@ -3367,7 +3371,7 @@
       <c r="U33" s="36"/>
     </row>
     <row r="34" spans="1:30" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="114"/>
+      <c r="B34" s="149"/>
       <c r="C34" s="64">
         <v>6</v>
       </c>
@@ -3405,7 +3409,7 @@
       <c r="O34" s="73">
         <v>54</v>
       </c>
-      <c r="P34" s="116"/>
+      <c r="P34" s="147"/>
       <c r="R34" s="61" t="s">
         <v>41</v>
       </c>
@@ -3418,7 +3422,7 @@
       <c r="U34" s="36"/>
     </row>
     <row r="35" spans="1:30" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="115"/>
+      <c r="B35" s="150"/>
       <c r="C35" s="78">
         <v>6</v>
       </c>
@@ -3454,7 +3458,7 @@
       <c r="O35" s="87" t="s">
         <v>57</v>
       </c>
-      <c r="P35" s="116"/>
+      <c r="P35" s="147"/>
       <c r="R35" s="74" t="s">
         <v>57</v>
       </c>
@@ -3467,7 +3471,7 @@
       <c r="U35" s="36"/>
     </row>
     <row r="36" spans="1:30" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="113">
+      <c r="B36" s="148">
         <v>7</v>
       </c>
       <c r="C36" s="50">
@@ -3507,7 +3511,7 @@
       <c r="O36" s="60">
         <v>46.5</v>
       </c>
-      <c r="P36" s="116" t="s">
+      <c r="P36" s="147" t="s">
         <v>30</v>
       </c>
       <c r="R36" s="61" t="s">
@@ -3522,7 +3526,7 @@
       <c r="U36" s="36"/>
     </row>
     <row r="37" spans="1:30" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="114"/>
+      <c r="B37" s="149"/>
       <c r="C37" s="64">
         <v>7</v>
       </c>
@@ -3560,7 +3564,7 @@
       <c r="O37" s="73">
         <v>46.5</v>
       </c>
-      <c r="P37" s="116"/>
+      <c r="P37" s="147"/>
       <c r="R37" s="74" t="s">
         <v>43</v>
       </c>
@@ -3573,7 +3577,7 @@
       <c r="U37" s="36"/>
     </row>
     <row r="38" spans="1:30" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="115"/>
+      <c r="B38" s="150"/>
       <c r="C38" s="78">
         <v>7</v>
       </c>
@@ -3609,7 +3613,7 @@
       <c r="O38" s="87" t="s">
         <v>57</v>
       </c>
-      <c r="P38" s="116"/>
+      <c r="P38" s="147"/>
       <c r="R38" s="61" t="s">
         <v>57</v>
       </c>
@@ -3622,7 +3626,7 @@
       <c r="U38" s="36"/>
     </row>
     <row r="39" spans="1:30" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="113">
+      <c r="B39" s="148">
         <v>8</v>
       </c>
       <c r="C39" s="50">
@@ -3662,7 +3666,7 @@
       <c r="O39" s="60">
         <v>41</v>
       </c>
-      <c r="P39" s="116" t="s">
+      <c r="P39" s="147" t="s">
         <v>30</v>
       </c>
       <c r="R39" s="74" t="s">
@@ -3677,7 +3681,7 @@
       <c r="U39" s="36"/>
     </row>
     <row r="40" spans="1:30" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="114"/>
+      <c r="B40" s="149"/>
       <c r="C40" s="64">
         <v>8</v>
       </c>
@@ -3715,7 +3719,7 @@
       <c r="O40" s="73">
         <v>41</v>
       </c>
-      <c r="P40" s="116"/>
+      <c r="P40" s="147"/>
       <c r="R40" s="61" t="s">
         <v>45</v>
       </c>
@@ -3728,7 +3732,7 @@
       <c r="U40" s="36"/>
     </row>
     <row r="41" spans="1:30" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="115"/>
+      <c r="B41" s="150"/>
       <c r="C41" s="78">
         <v>8</v>
       </c>
@@ -3764,7 +3768,7 @@
       <c r="O41" s="87" t="s">
         <v>57</v>
       </c>
-      <c r="P41" s="116"/>
+      <c r="P41" s="147"/>
       <c r="R41" s="74" t="s">
         <v>57</v>
       </c>
@@ -3831,9 +3835,9 @@
       <c r="O43" s="21"/>
       <c r="P43" s="21"/>
       <c r="Q43" s="14"/>
-      <c r="R43" s="123"/>
-      <c r="S43" s="124"/>
-      <c r="T43" s="144"/>
+      <c r="R43" s="138"/>
+      <c r="S43" s="139"/>
+      <c r="T43" s="160"/>
       <c r="U43" s="22">
         <v>2</v>
       </c>
@@ -3848,51 +3852,51 @@
     </row>
     <row r="44" spans="1:30" s="5" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="1"/>
-      <c r="B44" s="145" t="s">
+      <c r="B44" s="161" t="s">
         <v>17</v>
       </c>
       <c r="C44" s="99"/>
       <c r="D44" s="99"/>
-      <c r="E44" s="148" t="s">
+      <c r="E44" s="164" t="s">
         <v>18</v>
       </c>
-      <c r="F44" s="126" t="s">
+      <c r="F44" s="167" t="s">
         <v>19</v>
       </c>
-      <c r="G44" s="126" t="s">
+      <c r="G44" s="167" t="s">
         <v>20</v>
       </c>
-      <c r="H44" s="153" t="s">
+      <c r="H44" s="170" t="s">
         <v>21</v>
       </c>
       <c r="I44" s="100"/>
-      <c r="J44" s="145" t="s">
+      <c r="J44" s="161" t="s">
         <v>22</v>
       </c>
-      <c r="K44" s="126" t="s">
-        <v>57</v>
-      </c>
-      <c r="L44" s="126" t="s">
-        <v>57</v>
-      </c>
-      <c r="M44" s="126" t="s">
+      <c r="K44" s="167" t="s">
+        <v>57</v>
+      </c>
+      <c r="L44" s="167" t="s">
+        <v>57</v>
+      </c>
+      <c r="M44" s="167" t="s">
         <v>58</v>
       </c>
-      <c r="N44" s="126" t="s">
-        <v>57</v>
-      </c>
-      <c r="O44" s="129" t="s">
+      <c r="N44" s="167" t="s">
+        <v>57</v>
+      </c>
+      <c r="O44" s="175" t="s">
         <v>23</v>
       </c>
-      <c r="P44" s="132" t="s">
+      <c r="P44" s="176" t="s">
         <v>24</v>
       </c>
       <c r="Q44" s="14"/>
-      <c r="R44" s="135" t="s">
+      <c r="R44" s="151" t="s">
         <v>25</v>
       </c>
-      <c r="S44" s="136"/>
-      <c r="T44" s="137"/>
+      <c r="S44" s="152"/>
+      <c r="T44" s="153"/>
       <c r="U44" s="36"/>
       <c r="W44" s="1"/>
       <c r="X44" s="1"/>
@@ -3905,33 +3909,33 @@
     </row>
     <row r="45" spans="1:30" s="5" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="1"/>
-      <c r="B45" s="146"/>
+      <c r="B45" s="162"/>
       <c r="C45" s="101"/>
       <c r="D45" s="101"/>
-      <c r="E45" s="149"/>
-      <c r="F45" s="151"/>
-      <c r="G45" s="149"/>
-      <c r="H45" s="130"/>
+      <c r="E45" s="165"/>
+      <c r="F45" s="168"/>
+      <c r="G45" s="165"/>
+      <c r="H45" s="171"/>
       <c r="I45" s="100"/>
-      <c r="J45" s="146"/>
-      <c r="K45" s="127" t="s">
-        <v>57</v>
-      </c>
-      <c r="L45" s="127" t="s">
-        <v>57</v>
-      </c>
-      <c r="M45" s="127" t="s">
+      <c r="J45" s="162"/>
+      <c r="K45" s="173" t="s">
+        <v>57</v>
+      </c>
+      <c r="L45" s="173" t="s">
+        <v>57</v>
+      </c>
+      <c r="M45" s="173" t="s">
         <v>58</v>
       </c>
-      <c r="N45" s="127" t="s">
-        <v>57</v>
-      </c>
-      <c r="O45" s="130"/>
-      <c r="P45" s="133"/>
+      <c r="N45" s="173" t="s">
+        <v>57</v>
+      </c>
+      <c r="O45" s="171"/>
+      <c r="P45" s="177"/>
       <c r="Q45" s="14"/>
-      <c r="R45" s="138"/>
-      <c r="S45" s="139"/>
-      <c r="T45" s="140"/>
+      <c r="R45" s="154"/>
+      <c r="S45" s="155"/>
+      <c r="T45" s="156"/>
       <c r="U45" s="36"/>
       <c r="W45" s="1"/>
       <c r="X45" s="1"/>
@@ -3944,33 +3948,33 @@
     </row>
     <row r="46" spans="1:30" s="5" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="1"/>
-      <c r="B46" s="146"/>
+      <c r="B46" s="162"/>
       <c r="C46" s="101"/>
       <c r="D46" s="101"/>
-      <c r="E46" s="149"/>
-      <c r="F46" s="151"/>
-      <c r="G46" s="149"/>
-      <c r="H46" s="130"/>
+      <c r="E46" s="165"/>
+      <c r="F46" s="168"/>
+      <c r="G46" s="165"/>
+      <c r="H46" s="171"/>
       <c r="I46" s="100"/>
-      <c r="J46" s="146"/>
-      <c r="K46" s="127" t="s">
-        <v>57</v>
-      </c>
-      <c r="L46" s="127" t="s">
-        <v>57</v>
-      </c>
-      <c r="M46" s="127" t="s">
+      <c r="J46" s="162"/>
+      <c r="K46" s="173" t="s">
+        <v>57</v>
+      </c>
+      <c r="L46" s="173" t="s">
+        <v>57</v>
+      </c>
+      <c r="M46" s="173" t="s">
         <v>58</v>
       </c>
-      <c r="N46" s="127" t="s">
-        <v>57</v>
-      </c>
-      <c r="O46" s="130"/>
-      <c r="P46" s="133"/>
+      <c r="N46" s="173" t="s">
+        <v>57</v>
+      </c>
+      <c r="O46" s="171"/>
+      <c r="P46" s="177"/>
       <c r="Q46" s="14"/>
-      <c r="R46" s="138"/>
-      <c r="S46" s="139"/>
-      <c r="T46" s="140"/>
+      <c r="R46" s="154"/>
+      <c r="S46" s="155"/>
+      <c r="T46" s="156"/>
       <c r="U46" s="36"/>
       <c r="W46" s="1"/>
       <c r="X46" s="1"/>
@@ -3982,32 +3986,32 @@
       <c r="AD46" s="1"/>
     </row>
     <row r="47" spans="1:30" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="147"/>
+      <c r="B47" s="163"/>
       <c r="C47" s="102"/>
       <c r="D47" s="102"/>
-      <c r="E47" s="150"/>
-      <c r="F47" s="152"/>
-      <c r="G47" s="150"/>
-      <c r="H47" s="131"/>
+      <c r="E47" s="166"/>
+      <c r="F47" s="169"/>
+      <c r="G47" s="166"/>
+      <c r="H47" s="172"/>
       <c r="I47" s="31"/>
-      <c r="J47" s="147"/>
-      <c r="K47" s="128" t="s">
-        <v>57</v>
-      </c>
-      <c r="L47" s="128" t="s">
-        <v>57</v>
-      </c>
-      <c r="M47" s="128" t="s">
+      <c r="J47" s="163"/>
+      <c r="K47" s="174" t="s">
+        <v>57</v>
+      </c>
+      <c r="L47" s="174" t="s">
+        <v>57</v>
+      </c>
+      <c r="M47" s="174" t="s">
         <v>58</v>
       </c>
-      <c r="N47" s="128" t="s">
-        <v>57</v>
-      </c>
-      <c r="O47" s="131"/>
-      <c r="P47" s="134"/>
-      <c r="R47" s="141"/>
-      <c r="S47" s="142"/>
-      <c r="T47" s="143"/>
+      <c r="N47" s="174" t="s">
+        <v>57</v>
+      </c>
+      <c r="O47" s="172"/>
+      <c r="P47" s="178"/>
+      <c r="R47" s="157"/>
+      <c r="S47" s="158"/>
+      <c r="T47" s="159"/>
       <c r="U47" s="36"/>
     </row>
     <row r="48" spans="1:30" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -4038,7 +4042,7 @@
       <c r="U48" s="36"/>
     </row>
     <row r="49" spans="1:30" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="120">
+      <c r="B49" s="144">
         <v>1</v>
       </c>
       <c r="C49" s="50">
@@ -4078,7 +4082,7 @@
       <c r="O49" s="60">
         <v>0</v>
       </c>
-      <c r="P49" s="116" t="s">
+      <c r="P49" s="147" t="s">
         <v>30</v>
       </c>
       <c r="R49" s="61" t="s">
@@ -4093,7 +4097,7 @@
       <c r="U49" s="36"/>
     </row>
     <row r="50" spans="1:30" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="121"/>
+      <c r="B50" s="145"/>
       <c r="C50" s="64">
         <v>1</v>
       </c>
@@ -4131,7 +4135,7 @@
       <c r="O50" s="73">
         <v>0</v>
       </c>
-      <c r="P50" s="116"/>
+      <c r="P50" s="147"/>
       <c r="R50" s="103" t="s">
         <v>57</v>
       </c>
@@ -4144,7 +4148,7 @@
       <c r="U50" s="36"/>
     </row>
     <row r="51" spans="1:30" s="14" customFormat="1" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="122"/>
+      <c r="B51" s="146"/>
       <c r="C51" s="78">
         <v>1</v>
       </c>
@@ -4180,7 +4184,7 @@
       <c r="O51" s="87" t="s">
         <v>57</v>
       </c>
-      <c r="P51" s="116"/>
+      <c r="P51" s="147"/>
       <c r="Q51" s="1"/>
       <c r="R51" s="104" t="s">
         <v>57</v>
@@ -4195,7 +4199,7 @@
       <c r="V51" s="5"/>
     </row>
     <row r="52" spans="1:30" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="120">
+      <c r="B52" s="144">
         <v>2</v>
       </c>
       <c r="C52" s="50">
@@ -4235,7 +4239,7 @@
       <c r="O52" s="60">
         <v>0</v>
       </c>
-      <c r="P52" s="116" t="s">
+      <c r="P52" s="147" t="s">
         <v>30</v>
       </c>
       <c r="R52" s="103" t="s">
@@ -4250,7 +4254,7 @@
       <c r="U52" s="36"/>
     </row>
     <row r="53" spans="1:30" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="121"/>
+      <c r="B53" s="145"/>
       <c r="C53" s="64">
         <v>2</v>
       </c>
@@ -4288,7 +4292,7 @@
       <c r="O53" s="73">
         <v>0</v>
       </c>
-      <c r="P53" s="116"/>
+      <c r="P53" s="147"/>
       <c r="R53" s="104" t="s">
         <v>57</v>
       </c>
@@ -4301,7 +4305,7 @@
       <c r="U53" s="36"/>
     </row>
     <row r="54" spans="1:30" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="122"/>
+      <c r="B54" s="146"/>
       <c r="C54" s="78">
         <v>2</v>
       </c>
@@ -4337,7 +4341,7 @@
       <c r="O54" s="87" t="s">
         <v>57</v>
       </c>
-      <c r="P54" s="116"/>
+      <c r="P54" s="147"/>
       <c r="R54" s="103" t="s">
         <v>57</v>
       </c>
@@ -4350,7 +4354,7 @@
       <c r="U54" s="36"/>
     </row>
     <row r="55" spans="1:30" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="113">
+      <c r="B55" s="148">
         <v>3</v>
       </c>
       <c r="C55" s="50">
@@ -4390,7 +4394,7 @@
       <c r="O55" s="60">
         <v>0</v>
       </c>
-      <c r="P55" s="116" t="s">
+      <c r="P55" s="147" t="s">
         <v>30</v>
       </c>
       <c r="R55" s="104" t="s">
@@ -4405,7 +4409,7 @@
       <c r="U55" s="36"/>
     </row>
     <row r="56" spans="1:30" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="114"/>
+      <c r="B56" s="149"/>
       <c r="C56" s="64">
         <v>3</v>
       </c>
@@ -4443,7 +4447,7 @@
       <c r="O56" s="73">
         <v>0</v>
       </c>
-      <c r="P56" s="116"/>
+      <c r="P56" s="147"/>
       <c r="R56" s="103" t="s">
         <v>57</v>
       </c>
@@ -4456,7 +4460,7 @@
       <c r="U56" s="36"/>
     </row>
     <row r="57" spans="1:30" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B57" s="115"/>
+      <c r="B57" s="150"/>
       <c r="C57" s="78">
         <v>3</v>
       </c>
@@ -4492,7 +4496,7 @@
       <c r="O57" s="87" t="s">
         <v>57</v>
       </c>
-      <c r="P57" s="116"/>
+      <c r="P57" s="147"/>
       <c r="R57" s="104" t="s">
         <v>57</v>
       </c>
@@ -4505,7 +4509,7 @@
       <c r="U57" s="36"/>
     </row>
     <row r="58" spans="1:30" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B58" s="113">
+      <c r="B58" s="148">
         <v>4</v>
       </c>
       <c r="C58" s="50">
@@ -4545,7 +4549,7 @@
       <c r="O58" s="60">
         <v>0</v>
       </c>
-      <c r="P58" s="116" t="s">
+      <c r="P58" s="147" t="s">
         <v>30</v>
       </c>
       <c r="R58" s="103" t="s">
@@ -4560,7 +4564,7 @@
       <c r="U58" s="36"/>
     </row>
     <row r="59" spans="1:30" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B59" s="114"/>
+      <c r="B59" s="149"/>
       <c r="C59" s="64">
         <v>4</v>
       </c>
@@ -4598,7 +4602,7 @@
       <c r="O59" s="73">
         <v>0</v>
       </c>
-      <c r="P59" s="116"/>
+      <c r="P59" s="147"/>
       <c r="R59" s="104" t="s">
         <v>57</v>
       </c>
@@ -4611,7 +4615,7 @@
       <c r="U59" s="36"/>
     </row>
     <row r="60" spans="1:30" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B60" s="115"/>
+      <c r="B60" s="150"/>
       <c r="C60" s="78">
         <v>4</v>
       </c>
@@ -4647,7 +4651,7 @@
       <c r="O60" s="87" t="s">
         <v>57</v>
       </c>
-      <c r="P60" s="116"/>
+      <c r="P60" s="147"/>
       <c r="R60" s="103" t="s">
         <v>57</v>
       </c>
@@ -4660,7 +4664,7 @@
       <c r="U60" s="36"/>
     </row>
     <row r="61" spans="1:30" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B61" s="113">
+      <c r="B61" s="148">
         <v>5</v>
       </c>
       <c r="C61" s="50">
@@ -4700,7 +4704,7 @@
       <c r="O61" s="60">
         <v>33</v>
       </c>
-      <c r="P61" s="116" t="s">
+      <c r="P61" s="147" t="s">
         <v>30</v>
       </c>
       <c r="R61" s="104" t="s">
@@ -4715,7 +4719,7 @@
       <c r="U61" s="36"/>
     </row>
     <row r="62" spans="1:30" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B62" s="114"/>
+      <c r="B62" s="149"/>
       <c r="C62" s="64">
         <v>5</v>
       </c>
@@ -4753,7 +4757,7 @@
       <c r="O62" s="73">
         <v>33</v>
       </c>
-      <c r="P62" s="116"/>
+      <c r="P62" s="147"/>
       <c r="R62" s="103" t="s">
         <v>49</v>
       </c>
@@ -4767,7 +4771,7 @@
     </row>
     <row r="63" spans="1:30" s="5" customFormat="1" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A63" s="1"/>
-      <c r="B63" s="115"/>
+      <c r="B63" s="150"/>
       <c r="C63" s="78">
         <v>5</v>
       </c>
@@ -4803,7 +4807,7 @@
       <c r="O63" s="87" t="s">
         <v>57</v>
       </c>
-      <c r="P63" s="116"/>
+      <c r="P63" s="147"/>
       <c r="Q63" s="1"/>
       <c r="R63" s="104" t="s">
         <v>57</v>
@@ -4826,7 +4830,7 @@
     </row>
     <row r="64" spans="1:30" s="5" customFormat="1" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A64" s="1"/>
-      <c r="B64" s="113">
+      <c r="B64" s="148">
         <v>6</v>
       </c>
       <c r="C64" s="50">
@@ -4866,7 +4870,7 @@
       <c r="O64" s="60">
         <v>24</v>
       </c>
-      <c r="P64" s="116" t="s">
+      <c r="P64" s="147" t="s">
         <v>30</v>
       </c>
       <c r="Q64" s="1"/>
@@ -4891,7 +4895,7 @@
     </row>
     <row r="65" spans="1:30" s="5" customFormat="1" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A65" s="1"/>
-      <c r="B65" s="114"/>
+      <c r="B65" s="149"/>
       <c r="C65" s="64">
         <v>6</v>
       </c>
@@ -4899,7 +4903,7 @@
         <v>11</v>
       </c>
       <c r="E65" s="65" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="F65" s="66" t="s">
         <v>61</v>
@@ -4929,7 +4933,7 @@
       <c r="O65" s="73">
         <v>24</v>
       </c>
-      <c r="P65" s="116"/>
+      <c r="P65" s="147"/>
       <c r="Q65" s="1"/>
       <c r="R65" s="110" t="s">
         <v>51</v>
@@ -4952,7 +4956,7 @@
     </row>
     <row r="66" spans="1:30" s="5" customFormat="1" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A66" s="1"/>
-      <c r="B66" s="115"/>
+      <c r="B66" s="150"/>
       <c r="C66" s="78">
         <v>6</v>
       </c>
@@ -4988,7 +4992,7 @@
       <c r="O66" s="87" t="s">
         <v>57</v>
       </c>
-      <c r="P66" s="116"/>
+      <c r="P66" s="147"/>
       <c r="Q66" s="1"/>
       <c r="R66" s="103" t="s">
         <v>57</v>
@@ -5055,9 +5059,9 @@
       <c r="O68" s="21"/>
       <c r="P68" s="21"/>
       <c r="Q68" s="14"/>
-      <c r="R68" s="123"/>
-      <c r="S68" s="124"/>
-      <c r="T68" s="125"/>
+      <c r="R68" s="138"/>
+      <c r="S68" s="139"/>
+      <c r="T68" s="140"/>
       <c r="U68" s="22">
         <v>3</v>
       </c>
@@ -5103,11 +5107,11 @@
       <c r="P69" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="R69" s="117" t="s">
+      <c r="R69" s="141" t="s">
         <v>25</v>
       </c>
-      <c r="S69" s="118"/>
-      <c r="T69" s="119"/>
+      <c r="S69" s="142"/>
+      <c r="T69" s="143"/>
       <c r="U69" s="36"/>
     </row>
     <row r="70" spans="1:30" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -5140,7 +5144,7 @@
     </row>
     <row r="71" spans="1:30" s="5" customFormat="1" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A71" s="109"/>
-      <c r="B71" s="120">
+      <c r="B71" s="144">
         <v>1</v>
       </c>
       <c r="C71" s="50">
@@ -5180,7 +5184,7 @@
       <c r="O71" s="60">
         <v>0</v>
       </c>
-      <c r="P71" s="116" t="s">
+      <c r="P71" s="147" t="s">
         <v>30</v>
       </c>
       <c r="Q71" s="1"/>
@@ -5205,7 +5209,7 @@
     </row>
     <row r="72" spans="1:30" s="5" customFormat="1" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A72" s="109"/>
-      <c r="B72" s="121"/>
+      <c r="B72" s="145"/>
       <c r="C72" s="64">
         <v>1</v>
       </c>
@@ -5243,7 +5247,7 @@
       <c r="O72" s="73">
         <v>0</v>
       </c>
-      <c r="P72" s="116"/>
+      <c r="P72" s="147"/>
       <c r="Q72" s="1"/>
       <c r="R72" s="103" t="s">
         <v>57</v>
@@ -5266,7 +5270,7 @@
     </row>
     <row r="73" spans="1:30" s="5" customFormat="1" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A73" s="109"/>
-      <c r="B73" s="122"/>
+      <c r="B73" s="146"/>
       <c r="C73" s="78">
         <v>1</v>
       </c>
@@ -5302,7 +5306,7 @@
       <c r="O73" s="87" t="s">
         <v>57</v>
       </c>
-      <c r="P73" s="116"/>
+      <c r="P73" s="147"/>
       <c r="Q73" s="1"/>
       <c r="R73" s="104" t="s">
         <v>57</v>
@@ -5325,7 +5329,7 @@
     </row>
     <row r="74" spans="1:30" s="5" customFormat="1" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A74" s="109"/>
-      <c r="B74" s="120">
+      <c r="B74" s="144">
         <v>2</v>
       </c>
       <c r="C74" s="50">
@@ -5365,7 +5369,7 @@
       <c r="O74" s="60">
         <v>0</v>
       </c>
-      <c r="P74" s="116" t="s">
+      <c r="P74" s="147" t="s">
         <v>30</v>
       </c>
       <c r="Q74" s="1"/>
@@ -5390,7 +5394,7 @@
     </row>
     <row r="75" spans="1:30" s="5" customFormat="1" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A75" s="109"/>
-      <c r="B75" s="121"/>
+      <c r="B75" s="145"/>
       <c r="C75" s="64">
         <v>2</v>
       </c>
@@ -5428,7 +5432,7 @@
       <c r="O75" s="73">
         <v>0</v>
       </c>
-      <c r="P75" s="116"/>
+      <c r="P75" s="147"/>
       <c r="Q75" s="1"/>
       <c r="R75" s="104" t="s">
         <v>57</v>
@@ -5451,7 +5455,7 @@
     </row>
     <row r="76" spans="1:30" s="5" customFormat="1" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A76" s="109"/>
-      <c r="B76" s="122"/>
+      <c r="B76" s="146"/>
       <c r="C76" s="78">
         <v>2</v>
       </c>
@@ -5487,7 +5491,7 @@
       <c r="O76" s="87" t="s">
         <v>57</v>
       </c>
-      <c r="P76" s="116"/>
+      <c r="P76" s="147"/>
       <c r="Q76" s="1"/>
       <c r="R76" s="103" t="s">
         <v>57</v>
@@ -5510,7 +5514,7 @@
     </row>
     <row r="77" spans="1:30" s="5" customFormat="1" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A77" s="109"/>
-      <c r="B77" s="113">
+      <c r="B77" s="148">
         <v>3</v>
       </c>
       <c r="C77" s="50">
@@ -5550,7 +5554,7 @@
       <c r="O77" s="60">
         <v>0</v>
       </c>
-      <c r="P77" s="116" t="s">
+      <c r="P77" s="147" t="s">
         <v>30</v>
       </c>
       <c r="Q77" s="1"/>
@@ -5575,7 +5579,7 @@
     </row>
     <row r="78" spans="1:30" s="5" customFormat="1" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A78" s="109"/>
-      <c r="B78" s="114"/>
+      <c r="B78" s="149"/>
       <c r="C78" s="64">
         <v>3</v>
       </c>
@@ -5613,7 +5617,7 @@
       <c r="O78" s="73">
         <v>0</v>
       </c>
-      <c r="P78" s="116"/>
+      <c r="P78" s="147"/>
       <c r="Q78" s="1"/>
       <c r="R78" s="103" t="s">
         <v>57</v>
@@ -5636,7 +5640,7 @@
     </row>
     <row r="79" spans="1:30" s="5" customFormat="1" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A79" s="109"/>
-      <c r="B79" s="115"/>
+      <c r="B79" s="150"/>
       <c r="C79" s="78">
         <v>3</v>
       </c>
@@ -5672,7 +5676,7 @@
       <c r="O79" s="87" t="s">
         <v>57</v>
       </c>
-      <c r="P79" s="116"/>
+      <c r="P79" s="147"/>
       <c r="Q79" s="1"/>
       <c r="R79" s="104" t="s">
         <v>57</v>
@@ -5695,7 +5699,7 @@
     </row>
     <row r="80" spans="1:30" s="5" customFormat="1" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A80" s="109"/>
-      <c r="B80" s="113">
+      <c r="B80" s="148">
         <v>4</v>
       </c>
       <c r="C80" s="50">
@@ -5735,7 +5739,7 @@
       <c r="O80" s="60">
         <v>0</v>
       </c>
-      <c r="P80" s="116" t="s">
+      <c r="P80" s="147" t="s">
         <v>30</v>
       </c>
       <c r="Q80" s="1"/>
@@ -5760,7 +5764,7 @@
     </row>
     <row r="81" spans="1:30" s="5" customFormat="1" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A81" s="109"/>
-      <c r="B81" s="114"/>
+      <c r="B81" s="149"/>
       <c r="C81" s="64">
         <v>4</v>
       </c>
@@ -5798,7 +5802,7 @@
       <c r="O81" s="73">
         <v>0</v>
       </c>
-      <c r="P81" s="116"/>
+      <c r="P81" s="147"/>
       <c r="Q81" s="1"/>
       <c r="R81" s="104" t="s">
         <v>57</v>
@@ -5821,7 +5825,7 @@
     </row>
     <row r="82" spans="1:30" s="5" customFormat="1" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A82" s="109"/>
-      <c r="B82" s="115"/>
+      <c r="B82" s="150"/>
       <c r="C82" s="78">
         <v>4</v>
       </c>
@@ -5857,7 +5861,7 @@
       <c r="O82" s="87" t="s">
         <v>57</v>
       </c>
-      <c r="P82" s="116"/>
+      <c r="P82" s="147"/>
       <c r="Q82" s="1"/>
       <c r="R82" s="103" t="s">
         <v>57</v>
@@ -5880,7 +5884,7 @@
     </row>
     <row r="83" spans="1:30" s="5" customFormat="1" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A83" s="109"/>
-      <c r="B83" s="113">
+      <c r="B83" s="148">
         <v>5</v>
       </c>
       <c r="C83" s="50">
@@ -5920,7 +5924,7 @@
       <c r="O83" s="60">
         <v>33</v>
       </c>
-      <c r="P83" s="116" t="s">
+      <c r="P83" s="147" t="s">
         <v>30</v>
       </c>
       <c r="Q83" s="1"/>
@@ -5945,7 +5949,7 @@
     </row>
     <row r="84" spans="1:30" s="5" customFormat="1" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A84" s="109"/>
-      <c r="B84" s="114"/>
+      <c r="B84" s="149"/>
       <c r="C84" s="64">
         <v>5</v>
       </c>
@@ -5983,7 +5987,7 @@
       <c r="O84" s="73">
         <v>33</v>
       </c>
-      <c r="P84" s="116"/>
+      <c r="P84" s="147"/>
       <c r="Q84" s="1"/>
       <c r="R84" s="103" t="s">
         <v>54</v>
@@ -6006,7 +6010,7 @@
     </row>
     <row r="85" spans="1:30" s="5" customFormat="1" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A85" s="109"/>
-      <c r="B85" s="115"/>
+      <c r="B85" s="150"/>
       <c r="C85" s="78">
         <v>5</v>
       </c>
@@ -6042,7 +6046,7 @@
       <c r="O85" s="87" t="s">
         <v>57</v>
       </c>
-      <c r="P85" s="116"/>
+      <c r="P85" s="147"/>
       <c r="Q85" s="1"/>
       <c r="R85" s="104" t="s">
         <v>57</v>
@@ -6065,7 +6069,7 @@
     </row>
     <row r="86" spans="1:30" s="5" customFormat="1" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A86" s="109"/>
-      <c r="B86" s="113">
+      <c r="B86" s="148">
         <v>6</v>
       </c>
       <c r="C86" s="50">
@@ -6105,7 +6109,7 @@
       <c r="O86" s="60">
         <v>24</v>
       </c>
-      <c r="P86" s="116" t="s">
+      <c r="P86" s="147" t="s">
         <v>30</v>
       </c>
       <c r="Q86" s="1"/>
@@ -6130,7 +6134,7 @@
     </row>
     <row r="87" spans="1:30" s="5" customFormat="1" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A87" s="109"/>
-      <c r="B87" s="114"/>
+      <c r="B87" s="149"/>
       <c r="C87" s="64">
         <v>6</v>
       </c>
@@ -6168,7 +6172,7 @@
       <c r="O87" s="73">
         <v>24</v>
       </c>
-      <c r="P87" s="116"/>
+      <c r="P87" s="147"/>
       <c r="Q87" s="1"/>
       <c r="R87" s="110" t="s">
         <v>56</v>
@@ -6191,7 +6195,7 @@
     </row>
     <row r="88" spans="1:30" s="5" customFormat="1" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A88" s="109"/>
-      <c r="B88" s="115"/>
+      <c r="B88" s="150"/>
       <c r="C88" s="78">
         <v>6</v>
       </c>
@@ -6227,7 +6231,7 @@
       <c r="O88" s="87" t="s">
         <v>57</v>
       </c>
-      <c r="P88" s="116"/>
+      <c r="P88" s="147"/>
       <c r="Q88" s="1"/>
       <c r="R88" s="103" t="s">
         <v>57</v>
@@ -6250,6 +6254,64 @@
     </row>
   </sheetData>
   <mergeCells count="74">
+    <mergeCell ref="B80:B82"/>
+    <mergeCell ref="P80:P82"/>
+    <mergeCell ref="B83:B85"/>
+    <mergeCell ref="P83:P85"/>
+    <mergeCell ref="B86:B88"/>
+    <mergeCell ref="P86:P88"/>
+    <mergeCell ref="B77:B79"/>
+    <mergeCell ref="P77:P79"/>
+    <mergeCell ref="R68:T68"/>
+    <mergeCell ref="B58:B60"/>
+    <mergeCell ref="P58:P60"/>
+    <mergeCell ref="B61:B63"/>
+    <mergeCell ref="P61:P63"/>
+    <mergeCell ref="B64:B66"/>
+    <mergeCell ref="P64:P66"/>
+    <mergeCell ref="R69:T69"/>
+    <mergeCell ref="B71:B73"/>
+    <mergeCell ref="P71:P73"/>
+    <mergeCell ref="B74:B76"/>
+    <mergeCell ref="P74:P76"/>
+    <mergeCell ref="B49:B51"/>
+    <mergeCell ref="P49:P51"/>
+    <mergeCell ref="B52:B54"/>
+    <mergeCell ref="P52:P54"/>
+    <mergeCell ref="B55:B57"/>
+    <mergeCell ref="P55:P57"/>
+    <mergeCell ref="R44:T47"/>
+    <mergeCell ref="R43:T43"/>
+    <mergeCell ref="B44:B47"/>
+    <mergeCell ref="E44:E47"/>
+    <mergeCell ref="F44:F47"/>
+    <mergeCell ref="G44:G47"/>
+    <mergeCell ref="H44:H47"/>
+    <mergeCell ref="J44:J47"/>
+    <mergeCell ref="K44:K47"/>
+    <mergeCell ref="L44:L47"/>
+    <mergeCell ref="M44:M47"/>
+    <mergeCell ref="N44:N47"/>
+    <mergeCell ref="O44:O47"/>
+    <mergeCell ref="P44:P47"/>
+    <mergeCell ref="B33:B35"/>
+    <mergeCell ref="P33:P35"/>
+    <mergeCell ref="B36:B38"/>
+    <mergeCell ref="P36:P38"/>
+    <mergeCell ref="B39:B41"/>
+    <mergeCell ref="P39:P41"/>
+    <mergeCell ref="B24:B26"/>
+    <mergeCell ref="P24:P26"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="P27:P29"/>
+    <mergeCell ref="B30:B32"/>
+    <mergeCell ref="P30:P32"/>
+    <mergeCell ref="R15:T15"/>
+    <mergeCell ref="R16:T16"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="P18:P20"/>
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="P21:P23"/>
     <mergeCell ref="B13:H13"/>
     <mergeCell ref="I13:P13"/>
     <mergeCell ref="I2:P2"/>
@@ -6266,64 +6328,6 @@
     <mergeCell ref="M10:P10"/>
     <mergeCell ref="I11:P11"/>
     <mergeCell ref="I12:P12"/>
-    <mergeCell ref="R15:T15"/>
-    <mergeCell ref="R16:T16"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="P18:P20"/>
-    <mergeCell ref="B21:B23"/>
-    <mergeCell ref="P21:P23"/>
-    <mergeCell ref="B24:B26"/>
-    <mergeCell ref="P24:P26"/>
-    <mergeCell ref="B27:B29"/>
-    <mergeCell ref="P27:P29"/>
-    <mergeCell ref="B30:B32"/>
-    <mergeCell ref="P30:P32"/>
-    <mergeCell ref="B33:B35"/>
-    <mergeCell ref="P33:P35"/>
-    <mergeCell ref="B36:B38"/>
-    <mergeCell ref="P36:P38"/>
-    <mergeCell ref="B39:B41"/>
-    <mergeCell ref="P39:P41"/>
-    <mergeCell ref="R44:T47"/>
-    <mergeCell ref="R43:T43"/>
-    <mergeCell ref="B44:B47"/>
-    <mergeCell ref="E44:E47"/>
-    <mergeCell ref="F44:F47"/>
-    <mergeCell ref="G44:G47"/>
-    <mergeCell ref="H44:H47"/>
-    <mergeCell ref="J44:J47"/>
-    <mergeCell ref="K44:K47"/>
-    <mergeCell ref="L44:L47"/>
-    <mergeCell ref="M44:M47"/>
-    <mergeCell ref="N44:N47"/>
-    <mergeCell ref="O44:O47"/>
-    <mergeCell ref="P44:P47"/>
-    <mergeCell ref="B49:B51"/>
-    <mergeCell ref="P49:P51"/>
-    <mergeCell ref="B52:B54"/>
-    <mergeCell ref="P52:P54"/>
-    <mergeCell ref="B55:B57"/>
-    <mergeCell ref="P55:P57"/>
-    <mergeCell ref="B77:B79"/>
-    <mergeCell ref="P77:P79"/>
-    <mergeCell ref="R68:T68"/>
-    <mergeCell ref="B58:B60"/>
-    <mergeCell ref="P58:P60"/>
-    <mergeCell ref="B61:B63"/>
-    <mergeCell ref="P61:P63"/>
-    <mergeCell ref="B64:B66"/>
-    <mergeCell ref="P64:P66"/>
-    <mergeCell ref="R69:T69"/>
-    <mergeCell ref="B71:B73"/>
-    <mergeCell ref="P71:P73"/>
-    <mergeCell ref="B74:B76"/>
-    <mergeCell ref="P74:P76"/>
-    <mergeCell ref="B80:B82"/>
-    <mergeCell ref="P80:P82"/>
-    <mergeCell ref="B83:B85"/>
-    <mergeCell ref="P83:P85"/>
-    <mergeCell ref="B86:B88"/>
-    <mergeCell ref="P86:P88"/>
   </mergeCells>
   <conditionalFormatting sqref="P18:P41">
     <cfRule type="cellIs" dxfId="3" priority="44" operator="equal">
